--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H2">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I2">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J2">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.28312771147252</v>
+        <v>8.2840475</v>
       </c>
       <c r="N2">
-        <v>8.28312771147252</v>
+        <v>16.568095</v>
       </c>
       <c r="O2">
-        <v>0.1651797650911165</v>
+        <v>0.162064909128062</v>
       </c>
       <c r="P2">
-        <v>0.1651797650911165</v>
+        <v>0.1267883207199013</v>
       </c>
       <c r="Q2">
-        <v>18.17234850361552</v>
+        <v>19.75099587247375</v>
       </c>
       <c r="R2">
-        <v>18.17234850361552</v>
+        <v>79.00398348989501</v>
       </c>
       <c r="S2">
-        <v>0.01281655511882066</v>
+        <v>0.01109986775259161</v>
       </c>
       <c r="T2">
-        <v>0.01281655511882066</v>
+        <v>0.00727197043864998</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H3">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I3">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J3">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.0884079620058</v>
+        <v>10.55762366666667</v>
       </c>
       <c r="N3">
-        <v>10.0884079620058</v>
+        <v>31.672871</v>
       </c>
       <c r="O3">
-        <v>0.2011801478081069</v>
+        <v>0.2065440016062932</v>
       </c>
       <c r="P3">
-        <v>0.2011801478081069</v>
+        <v>0.2423785067907964</v>
       </c>
       <c r="Q3">
-        <v>22.13295167214411</v>
+        <v>25.17170277735183</v>
       </c>
       <c r="R3">
-        <v>22.13295167214411</v>
+        <v>151.030216664111</v>
       </c>
       <c r="S3">
-        <v>0.0156098808578204</v>
+        <v>0.01414625235811737</v>
       </c>
       <c r="T3">
-        <v>0.0156098808578204</v>
+        <v>0.01390166954131868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H4">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I4">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J4">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.86060316207513</v>
+        <v>5.931556333333333</v>
       </c>
       <c r="N4">
-        <v>5.86060316207513</v>
+        <v>17.794669</v>
       </c>
       <c r="O4">
-        <v>0.1168704730053873</v>
+        <v>0.1160419635630586</v>
       </c>
       <c r="P4">
-        <v>0.1168704730053873</v>
+        <v>0.13617475034254</v>
       </c>
       <c r="Q4">
-        <v>12.85757346890977</v>
+        <v>14.14213820683817</v>
       </c>
       <c r="R4">
-        <v>12.85757346890977</v>
+        <v>84.852829241029</v>
       </c>
       <c r="S4">
-        <v>0.009068161939871566</v>
+        <v>0.007947744247850724</v>
       </c>
       <c r="T4">
-        <v>0.009068161939871566</v>
+        <v>0.007810331056983992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H5">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I5">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J5">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.42173999120912</v>
+        <v>5.460941333333333</v>
       </c>
       <c r="N5">
-        <v>5.42173999120912</v>
+        <v>16.382824</v>
       </c>
       <c r="O5">
-        <v>0.1081187891009624</v>
+        <v>0.1068350900861377</v>
       </c>
       <c r="P5">
-        <v>0.1081187891009624</v>
+        <v>0.1253705235037399</v>
       </c>
       <c r="Q5">
-        <v>11.89475184353112</v>
+        <v>13.02008827623067</v>
       </c>
       <c r="R5">
-        <v>11.89475184353112</v>
+        <v>78.120529657384</v>
       </c>
       <c r="S5">
-        <v>0.008389105161447861</v>
+        <v>0.007317163090223864</v>
       </c>
       <c r="T5">
-        <v>0.008389105161447861</v>
+        <v>0.007190652385177983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H6">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I6">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J6">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.14538998022879</v>
+        <v>6.493894666666667</v>
       </c>
       <c r="N6">
-        <v>6.14538998022879</v>
+        <v>19.481684</v>
       </c>
       <c r="O6">
-        <v>0.1225496103267296</v>
+        <v>0.1270432658722128</v>
       </c>
       <c r="P6">
-        <v>0.1225496103267296</v>
+        <v>0.1490847317785038</v>
       </c>
       <c r="Q6">
-        <v>13.48236708419547</v>
+        <v>15.48287678910733</v>
       </c>
       <c r="R6">
-        <v>13.48236708419547</v>
+        <v>92.89726073464401</v>
       </c>
       <c r="S6">
-        <v>0.009508815045693481</v>
+        <v>0.008701226302632856</v>
       </c>
       <c r="T6">
-        <v>0.009508815045693481</v>
+        <v>0.008550785720574413</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H7">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I7">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J7">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.3468717139337</v>
+        <v>14.3875515</v>
       </c>
       <c r="N7">
-        <v>14.3468717139337</v>
+        <v>28.775103</v>
       </c>
       <c r="O7">
-        <v>0.2861012146676974</v>
+        <v>0.2814707697442357</v>
       </c>
       <c r="P7">
-        <v>0.2861012146676974</v>
+        <v>0.2202031668645185</v>
       </c>
       <c r="Q7">
-        <v>31.47559253024223</v>
+        <v>34.30309523110575</v>
       </c>
       <c r="R7">
-        <v>31.47559253024223</v>
+        <v>137.212380924423</v>
       </c>
       <c r="S7">
-        <v>0.0221990386372531</v>
+        <v>0.01927800618400619</v>
       </c>
       <c r="T7">
-        <v>0.0221990386372531</v>
+        <v>0.01262979831930638</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H8">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I8">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J8">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.28312771147252</v>
+        <v>8.2840475</v>
       </c>
       <c r="N8">
-        <v>8.28312771147252</v>
+        <v>16.568095</v>
       </c>
       <c r="O8">
-        <v>0.1651797650911165</v>
+        <v>0.162064909128062</v>
       </c>
       <c r="P8">
-        <v>0.1651797650911165</v>
+        <v>0.1267883207199013</v>
       </c>
       <c r="Q8">
-        <v>91.39903282269091</v>
+        <v>97.06570882224001</v>
       </c>
       <c r="R8">
-        <v>91.39903282269091</v>
+        <v>582.39425293344</v>
       </c>
       <c r="S8">
-        <v>0.06446171455196638</v>
+        <v>0.05454998513467288</v>
       </c>
       <c r="T8">
-        <v>0.06446171455196638</v>
+        <v>0.05360683859078211</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H9">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I9">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J9">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.0884079620058</v>
+        <v>10.55762366666667</v>
       </c>
       <c r="N9">
-        <v>10.0884079620058</v>
+        <v>31.672871</v>
       </c>
       <c r="O9">
-        <v>0.2011801478081069</v>
+        <v>0.2065440016062932</v>
       </c>
       <c r="P9">
-        <v>0.2011801478081069</v>
+        <v>0.2423785067907964</v>
       </c>
       <c r="Q9">
-        <v>111.3191493076888</v>
+        <v>123.705619105088</v>
       </c>
       <c r="R9">
-        <v>111.3191493076888</v>
+        <v>1113.350571945792</v>
       </c>
       <c r="S9">
-        <v>0.0785109317377643</v>
+        <v>0.06952135584376323</v>
       </c>
       <c r="T9">
-        <v>0.0785109317377643</v>
+        <v>0.1024790407951948</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H10">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I10">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J10">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.86060316207513</v>
+        <v>5.931556333333333</v>
       </c>
       <c r="N10">
-        <v>5.86060316207513</v>
+        <v>17.794669</v>
       </c>
       <c r="O10">
-        <v>0.1168704730053873</v>
+        <v>0.1160419635630586</v>
       </c>
       <c r="P10">
-        <v>0.1168704730053873</v>
+        <v>0.13617475034254</v>
       </c>
       <c r="Q10">
-        <v>64.66801906595812</v>
+        <v>69.501136964032</v>
       </c>
       <c r="R10">
-        <v>64.66801906595812</v>
+        <v>625.510232676288</v>
       </c>
       <c r="S10">
-        <v>0.04560892229305959</v>
+        <v>0.03905896360550903</v>
       </c>
       <c r="T10">
-        <v>0.04560892229305959</v>
+        <v>0.05757547556670781</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H11">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I11">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J11">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.42173999120912</v>
+        <v>5.460941333333333</v>
       </c>
       <c r="N11">
-        <v>5.42173999120912</v>
+        <v>16.382824</v>
       </c>
       <c r="O11">
-        <v>0.1081187891009624</v>
+        <v>0.1068350900861377</v>
       </c>
       <c r="P11">
-        <v>0.1081187891009624</v>
+        <v>0.1253705235037399</v>
       </c>
       <c r="Q11">
-        <v>59.82544380261935</v>
+        <v>63.98685441587201</v>
       </c>
       <c r="R11">
-        <v>59.82544380261935</v>
+        <v>575.881689742848</v>
       </c>
       <c r="S11">
-        <v>0.04219356115978225</v>
+        <v>0.035959990397768</v>
       </c>
       <c r="T11">
-        <v>0.04219356115978225</v>
+        <v>0.05300738569094342</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H12">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I12">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J12">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.14538998022879</v>
+        <v>6.493894666666667</v>
       </c>
       <c r="N12">
-        <v>6.14538998022879</v>
+        <v>19.481684</v>
       </c>
       <c r="O12">
-        <v>0.1225496103267296</v>
+        <v>0.1270432658722128</v>
       </c>
       <c r="P12">
-        <v>0.1225496103267296</v>
+        <v>0.1490847317785038</v>
       </c>
       <c r="Q12">
-        <v>67.81046001901072</v>
+        <v>76.09015868595201</v>
       </c>
       <c r="R12">
-        <v>67.81046001901072</v>
+        <v>684.8114281735681</v>
       </c>
       <c r="S12">
-        <v>0.04782521633311857</v>
+        <v>0.04276192978526477</v>
       </c>
       <c r="T12">
-        <v>0.04782521633311857</v>
+        <v>0.06303389071976123</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H13">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I13">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J13">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.3468717139337</v>
+        <v>14.3875515</v>
       </c>
       <c r="N13">
-        <v>14.3468717139337</v>
+        <v>28.775103</v>
       </c>
       <c r="O13">
-        <v>0.2861012146676974</v>
+        <v>0.2814707697442357</v>
       </c>
       <c r="P13">
-        <v>0.2861012146676974</v>
+        <v>0.2202031668645185</v>
       </c>
       <c r="Q13">
-        <v>158.3085815360016</v>
+        <v>168.581588234976</v>
       </c>
       <c r="R13">
-        <v>158.3085815360016</v>
+        <v>1011.489529409856</v>
       </c>
       <c r="S13">
-        <v>0.1116515380846236</v>
+        <v>0.09474121441835535</v>
       </c>
       <c r="T13">
-        <v>0.1116515380846236</v>
+        <v>0.09310317824433829</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H14">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I14">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J14">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.28312771147252</v>
+        <v>8.2840475</v>
       </c>
       <c r="N14">
-        <v>8.28312771147252</v>
+        <v>16.568095</v>
       </c>
       <c r="O14">
-        <v>0.1651797650911165</v>
+        <v>0.162064909128062</v>
       </c>
       <c r="P14">
-        <v>0.1651797650911165</v>
+        <v>0.1267883207199013</v>
       </c>
       <c r="Q14">
-        <v>14.50322386719604</v>
+        <v>14.906331639595</v>
       </c>
       <c r="R14">
-        <v>14.50322386719604</v>
+        <v>89.43798983757</v>
       </c>
       <c r="S14">
-        <v>0.01022880273606524</v>
+        <v>0.008377213531109576</v>
       </c>
       <c r="T14">
-        <v>0.01022880273606524</v>
+        <v>0.008232374995044074</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H15">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I15">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J15">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.0884079620058</v>
+        <v>10.55762366666667</v>
       </c>
       <c r="N15">
-        <v>10.0884079620058</v>
+        <v>31.672871</v>
       </c>
       <c r="O15">
-        <v>0.2011801478081069</v>
+        <v>0.2065440016062932</v>
       </c>
       <c r="P15">
-        <v>0.2011801478081069</v>
+        <v>0.2423785067907964</v>
       </c>
       <c r="Q15">
-        <v>17.66415347356298</v>
+        <v>18.99740914104733</v>
       </c>
       <c r="R15">
-        <v>17.66415347356298</v>
+        <v>170.976682269426</v>
       </c>
       <c r="S15">
-        <v>0.01245813641402402</v>
+        <v>0.0106763593324112</v>
       </c>
       <c r="T15">
-        <v>0.01245813641402402</v>
+        <v>0.01573765428322668</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H16">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I16">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J16">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.86060316207513</v>
+        <v>5.931556333333333</v>
       </c>
       <c r="N16">
-        <v>5.86060316207513</v>
+        <v>17.794669</v>
       </c>
       <c r="O16">
-        <v>0.1168704730053873</v>
+        <v>0.1160419635630586</v>
       </c>
       <c r="P16">
-        <v>0.1168704730053873</v>
+        <v>0.13617475034254</v>
       </c>
       <c r="Q16">
-        <v>10.26153919354001</v>
+        <v>10.67325432931267</v>
       </c>
       <c r="R16">
-        <v>10.26153919354001</v>
+        <v>96.059288963814</v>
       </c>
       <c r="S16">
-        <v>0.007237236433792677</v>
+        <v>0.005998265217110199</v>
       </c>
       <c r="T16">
-        <v>0.007237236433792677</v>
+        <v>0.008841836561215149</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H17">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I17">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J17">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.42173999120912</v>
+        <v>5.460941333333333</v>
       </c>
       <c r="N17">
-        <v>5.42173999120912</v>
+        <v>16.382824</v>
       </c>
       <c r="O17">
-        <v>0.1081187891009624</v>
+        <v>0.1068350900861377</v>
       </c>
       <c r="P17">
-        <v>0.1081187891009624</v>
+        <v>0.1253705235037399</v>
       </c>
       <c r="Q17">
-        <v>9.493118008228388</v>
+        <v>9.826428757082667</v>
       </c>
       <c r="R17">
-        <v>9.493118008228388</v>
+        <v>88.437858813744</v>
       </c>
       <c r="S17">
-        <v>0.006695285982311049</v>
+        <v>0.005522357474434516</v>
       </c>
       <c r="T17">
-        <v>0.006695285982311049</v>
+        <v>0.008140317317459123</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H18">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I18">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J18">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.14538998022879</v>
+        <v>6.493894666666667</v>
       </c>
       <c r="N18">
-        <v>6.14538998022879</v>
+        <v>19.481684</v>
       </c>
       <c r="O18">
-        <v>0.1225496103267296</v>
+        <v>0.1270432658722128</v>
       </c>
       <c r="P18">
-        <v>0.1225496103267296</v>
+        <v>0.1490847317785038</v>
       </c>
       <c r="Q18">
-        <v>10.76018259516091</v>
+        <v>11.68512705098933</v>
       </c>
       <c r="R18">
-        <v>10.76018259516091</v>
+        <v>105.166143458904</v>
       </c>
       <c r="S18">
-        <v>0.007588918586500619</v>
+        <v>0.006566927853950658</v>
       </c>
       <c r="T18">
-        <v>0.007588918586500619</v>
+        <v>0.009680082605933284</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H19">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I19">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J19">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.3468717139337</v>
+        <v>14.3875515</v>
       </c>
       <c r="N19">
-        <v>14.3468717139337</v>
+        <v>28.775103</v>
       </c>
       <c r="O19">
-        <v>0.2861012146676974</v>
+        <v>0.2814707697442357</v>
       </c>
       <c r="P19">
-        <v>0.2861012146676974</v>
+        <v>0.2202031668645185</v>
       </c>
       <c r="Q19">
-        <v>25.12044960660551</v>
+        <v>25.888988944203</v>
       </c>
       <c r="R19">
-        <v>25.12044960660551</v>
+        <v>155.333933665218</v>
       </c>
       <c r="S19">
-        <v>0.01771689701683635</v>
+        <v>0.0145493602137525</v>
       </c>
       <c r="T19">
-        <v>0.01771689701683635</v>
+        <v>0.01429780782986926</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H20">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I20">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J20">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.28312771147252</v>
+        <v>8.2840475</v>
       </c>
       <c r="N20">
-        <v>8.28312771147252</v>
+        <v>16.568095</v>
       </c>
       <c r="O20">
-        <v>0.1651797650911165</v>
+        <v>0.162064909128062</v>
       </c>
       <c r="P20">
-        <v>0.1651797650911165</v>
+        <v>0.1267883207199013</v>
       </c>
       <c r="Q20">
-        <v>110.1306261773841</v>
+        <v>156.653674326395</v>
       </c>
       <c r="R20">
-        <v>110.1306261773841</v>
+        <v>626.61469730558</v>
       </c>
       <c r="S20">
-        <v>0.07767269268426423</v>
+        <v>0.08803784270968792</v>
       </c>
       <c r="T20">
-        <v>0.07767269268426423</v>
+        <v>0.05767713669542512</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H21">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I21">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J21">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.0884079620058</v>
+        <v>10.55762366666667</v>
       </c>
       <c r="N21">
-        <v>10.0884079620058</v>
+        <v>31.672871</v>
       </c>
       <c r="O21">
-        <v>0.2011801478081069</v>
+        <v>0.2065440016062932</v>
       </c>
       <c r="P21">
-        <v>0.2011801478081069</v>
+        <v>0.2423785067907964</v>
       </c>
       <c r="Q21">
-        <v>134.1332313939528</v>
+        <v>199.6476407865406</v>
       </c>
       <c r="R21">
-        <v>134.1332313939528</v>
+        <v>1197.885844719244</v>
       </c>
       <c r="S21">
-        <v>0.09460119879849815</v>
+        <v>0.1122000340720015</v>
       </c>
       <c r="T21">
-        <v>0.09460119879849815</v>
+        <v>0.1102601421710562</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H22">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I22">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J22">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.86060316207513</v>
+        <v>5.931556333333333</v>
       </c>
       <c r="N22">
-        <v>5.86060316207513</v>
+        <v>17.794669</v>
       </c>
       <c r="O22">
-        <v>0.1168704730053873</v>
+        <v>0.1160419635630586</v>
       </c>
       <c r="P22">
-        <v>0.1168704730053873</v>
+        <v>0.13617475034254</v>
       </c>
       <c r="Q22">
-        <v>77.92127786736138</v>
+        <v>112.1674029622193</v>
       </c>
       <c r="R22">
-        <v>77.92127786736138</v>
+        <v>673.0044177733159</v>
       </c>
       <c r="S22">
-        <v>0.05495615233866348</v>
+        <v>0.06303699049258869</v>
       </c>
       <c r="T22">
-        <v>0.05495615233866348</v>
+        <v>0.06194710715763301</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H23">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I23">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J23">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.42173999120912</v>
+        <v>5.460941333333333</v>
       </c>
       <c r="N23">
-        <v>5.42173999120912</v>
+        <v>16.382824</v>
       </c>
       <c r="O23">
-        <v>0.1081187891009624</v>
+        <v>0.1068350900861377</v>
       </c>
       <c r="P23">
-        <v>0.1081187891009624</v>
+        <v>0.1253705235037399</v>
       </c>
       <c r="Q23">
-        <v>72.08625062919342</v>
+        <v>103.2679405987893</v>
       </c>
       <c r="R23">
-        <v>72.08625062919342</v>
+        <v>619.6076435927359</v>
       </c>
       <c r="S23">
-        <v>0.05084083679742121</v>
+        <v>0.05803557912371138</v>
       </c>
       <c r="T23">
-        <v>0.05084083679742121</v>
+        <v>0.05703216811015939</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H24">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I24">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J24">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.14538998022879</v>
+        <v>6.493894666666667</v>
       </c>
       <c r="N24">
-        <v>6.14538998022879</v>
+        <v>19.481684</v>
       </c>
       <c r="O24">
-        <v>0.1225496103267296</v>
+        <v>0.1270432658722128</v>
       </c>
       <c r="P24">
-        <v>0.1225496103267296</v>
+        <v>0.1490847317785038</v>
       </c>
       <c r="Q24">
-        <v>81.70774014378954</v>
+        <v>122.8013794249627</v>
       </c>
       <c r="R24">
-        <v>81.70774014378954</v>
+        <v>736.808276549776</v>
       </c>
       <c r="S24">
-        <v>0.05762666036141691</v>
+        <v>0.0690131819303645</v>
       </c>
       <c r="T24">
-        <v>0.05762666036141691</v>
+        <v>0.06781997273223485</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H25">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I25">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J25">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.3468717139337</v>
+        <v>14.3875515</v>
       </c>
       <c r="N25">
-        <v>14.3468717139337</v>
+        <v>28.775103</v>
       </c>
       <c r="O25">
-        <v>0.2861012146676974</v>
+        <v>0.2814707697442357</v>
       </c>
       <c r="P25">
-        <v>0.2861012146676974</v>
+        <v>0.2202031668645185</v>
       </c>
       <c r="Q25">
-        <v>190.7528195362366</v>
+        <v>272.072656154523</v>
       </c>
       <c r="R25">
-        <v>190.7528195362366</v>
+        <v>1088.290624618092</v>
       </c>
       <c r="S25">
-        <v>0.1345337409289844</v>
+        <v>0.1529021889281217</v>
       </c>
       <c r="T25">
-        <v>0.1345337409289844</v>
+        <v>0.1001723824710045</v>
       </c>
     </row>
   </sheetData>
